--- a/data/hplc/raw_data/070121_scutellaria_RTO.xlsx
+++ b/data/hplc/raw_data/070121_scutellaria_RTO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Research\scutellariaMetabolites\data\hplc\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16FCC211-6A12-4805-9D8D-ADD16C0F23BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C36E74-29DC-4BDA-A259-83CCD9EFF57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="apigenin feeding" sheetId="1" r:id="rId1"/>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,7 +1805,7 @@
         <v>46</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>7.51E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1813,7 +1813,7 @@
         <v>47</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>2.9399999999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1821,7 +1821,7 @@
         <v>48</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.20269999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1905,7 +1905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
@@ -2472,7 +2472,7 @@
         <v>0.46985514931737854</v>
       </c>
       <c r="P19">
-        <f t="shared" ref="P19:S19" si="2">AVERAGE(J15:J19)</f>
+        <f t="shared" ref="P19:R19" si="2">AVERAGE(J15:J19)</f>
         <v>5.8844227661674221E-2</v>
       </c>
       <c r="Q19">
